--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felfont/Documents/GitHub/rifa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A5F67-A2B5-2240-9D18-87F417938BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59711EF-74B6-2F47-938E-C6B1EA382738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500" xr2:uid="{7FCE44F2-A5C7-104D-986B-5195B1D430EA}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Hans Wormer</t>
   </si>
   <si>
-    <t>Barbara Kasta</t>
-  </si>
-  <si>
     <t>Emilie Engel</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Jesús</t>
+  </si>
+  <si>
+    <t>Barbara Kast</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,16 +481,16 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(10000000,99999999)</f>
-        <v>41951768</v>
+        <v>34244290</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B23" ca="1" si="0">RANDBETWEEN(10000000,99999999)</f>
-        <v>83641038</v>
+        <v>24860856</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>13577540</v>
+        <v>35297313</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -508,7 +508,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>35631559</v>
+        <v>51991404</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -517,7 +517,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>68434989</v>
+        <v>81133433</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -526,7 +526,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>24439032</v>
+        <v>98126816</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,7 +535,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>37340071</v>
+        <v>87810867</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -544,133 +544,133 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>15290187</v>
+        <v>23808384</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>77936751</v>
+        <v>45269526</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>96062258</v>
+        <v>52088465</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>61960157</v>
+        <v>67840757</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>18462999</v>
+        <v>92083793</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>57964639</v>
+        <v>45040676</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>62178859</v>
+        <v>93001776</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>57481302</v>
+        <v>31028699</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>99720560</v>
+        <v>77414280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>61222068</v>
+        <v>79024532</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>67728724</v>
+        <v>32022610</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>35526188</v>
+        <v>50278368</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>85996222</v>
+        <v>17752369</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>54791171</v>
+        <v>24621479</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>51640810</v>
+        <v>80223768</v>
       </c>
     </row>
   </sheetData>
